--- a/feature_selection.xlsx
+++ b/feature_selection.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melma\PycharmProjects\2016election\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D54B5-8C94-4BC5-BB97-341060D77D0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bernie" sheetId="1" r:id="rId1"/>
@@ -12,9 +18,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bernie!$A$1:$K$52</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -216,8 +222,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,8 +371,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Nagłówek 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,21 +676,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K52" sqref="A2:K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
@@ -699,7 +705,7 @@
     <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" thickBot="1">
+    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -734,61 +740,61 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1">
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <f>AVERAGE(C2:I2)</f>
-        <v>5.2857142857142856</v>
+        <v>3.1428571428571428</v>
       </c>
       <c r="K2">
         <f>IF(J2&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -801,495 +807,495 @@
       </c>
       <c r="J3">
         <f>AVERAGE(C3:I3)</f>
-        <v>7.2857142857142856</v>
+        <v>5.2857142857142856</v>
       </c>
       <c r="K3">
         <f>IF(J3&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
         <v>3</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>44</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
       </c>
       <c r="J4">
         <f>AVERAGE(C4:I4)</f>
-        <v>20.428571428571427</v>
+        <v>5.5714285714285712</v>
       </c>
       <c r="K4">
         <f>IF(J4&lt;=20, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>6</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
       </c>
       <c r="J5">
         <f>AVERAGE(C5:I5)</f>
-        <v>3.1428571428571428</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="K5">
         <f>IF(J5&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6">
         <f>AVERAGE(C6:I6)</f>
-        <v>5.5714285714285712</v>
+        <v>6.7142857142857144</v>
       </c>
       <c r="K6">
         <f>IF(J6&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <f>AVERAGE(C7:I7)</f>
-        <v>6.7142857142857144</v>
+        <v>7.2857142857142856</v>
       </c>
       <c r="K7">
         <f>IF(J7&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8">
         <v>29</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>29</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
       </c>
       <c r="J8">
         <f>AVERAGE(C8:I8)</f>
-        <v>13.714285714285714</v>
+        <v>10.428571428571429</v>
       </c>
       <c r="K8">
         <f>IF(J8&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>11</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
       </c>
       <c r="J9">
         <f>AVERAGE(C9:I9)</f>
-        <v>5.7142857142857144</v>
+        <v>10.857142857142858</v>
       </c>
       <c r="K9">
         <f>IF(J9&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>27</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
       <c r="G10">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J10">
         <f>AVERAGE(C10:I10)</f>
-        <v>17.142857142857142</v>
+        <v>11.142857142857142</v>
       </c>
       <c r="K10">
         <f>IF(J10&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
         <v>19</v>
       </c>
-      <c r="C11">
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
         <v>18</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>27</v>
-      </c>
-      <c r="G11">
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <v>13</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
       </c>
       <c r="J11">
         <f>AVERAGE(C11:I11)</f>
-        <v>12.714285714285714</v>
+        <v>11.571428571428571</v>
       </c>
       <c r="K11">
         <f>IF(J11&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H12">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J12">
         <f>AVERAGE(C12:I12)</f>
-        <v>22.285714285714285</v>
+        <v>11.571428571428571</v>
       </c>
       <c r="K12">
         <f>IF(J12&lt;=20, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>23</v>
-      </c>
-      <c r="E13">
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
       <c r="G13">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J13">
         <f>AVERAGE(C13:I13)</f>
-        <v>11.857142857142858</v>
+        <v>11.714285714285714</v>
       </c>
       <c r="K13">
         <f>IF(J13&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
         <v>22</v>
       </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <v>21</v>
-      </c>
-      <c r="G14">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>10</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>11</v>
       </c>
       <c r="J14">
         <f>AVERAGE(C14:I14)</f>
-        <v>10.857142857142858</v>
+        <v>11.857142857142858</v>
       </c>
       <c r="K14">
         <f>IF(J14&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
         <v>8</v>
-      </c>
-      <c r="D15">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>13</v>
-      </c>
-      <c r="G15">
-        <v>11</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
-        <v>12</v>
       </c>
       <c r="J15">
         <f>AVERAGE(C15:I15)</f>
-        <v>11.142857142857142</v>
+        <v>12.714285714285714</v>
       </c>
       <c r="K15">
         <f>IF(J15&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>26</v>
+      </c>
+      <c r="G16">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
         <v>16</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>27</v>
-      </c>
-      <c r="H16">
-        <v>24</v>
-      </c>
-      <c r="I16">
-        <v>13</v>
       </c>
       <c r="J16">
         <f>AVERAGE(C16:I16)</f>
-        <v>18.142857142857142</v>
+        <v>12.857142857142858</v>
       </c>
       <c r="K16">
         <f>IF(J16&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -1326,895 +1332,895 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>29</v>
+      </c>
+      <c r="F18">
         <v>7</v>
       </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>12</v>
-      </c>
       <c r="G18">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I18">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <f>AVERAGE(C18:I18)</f>
-        <v>11.714285714285714</v>
+        <v>13.714285714285714</v>
       </c>
       <c r="K18">
         <f>IF(J18&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>27</v>
+      </c>
+      <c r="I19">
         <v>7</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>26</v>
-      </c>
-      <c r="G19">
-        <v>20</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <v>16</v>
       </c>
       <c r="J19">
         <f>AVERAGE(C19:I19)</f>
-        <v>12.857142857142858</v>
+        <v>17.142857142857142</v>
       </c>
       <c r="K19">
         <f>IF(J19&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J20">
         <f>AVERAGE(C20:I20)</f>
-        <v>18.857142857142858</v>
+        <v>17.714285714285715</v>
       </c>
       <c r="K20">
         <f>IF(J20&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
         <v>6</v>
       </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>19</v>
-      </c>
       <c r="G21">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I21">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J21">
         <f>AVERAGE(C21:I21)</f>
-        <v>11.571428571428571</v>
+        <v>18.142857142857142</v>
       </c>
       <c r="K21">
         <f>IF(J21&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J22">
         <f>AVERAGE(C22:I22)</f>
-        <v>17.714285714285715</v>
+        <v>18.857142857142858</v>
       </c>
       <c r="K22">
         <f>IF(J22&lt;=20, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23">
         <v>42</v>
       </c>
-      <c r="C23">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>28</v>
-      </c>
-      <c r="E23">
-        <v>17</v>
-      </c>
       <c r="F23">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I23">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <f>AVERAGE(C23:I23)</f>
-        <v>21.571428571428573</v>
+        <v>20.428571428571427</v>
       </c>
       <c r="K23">
         <f>IF(J23&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>14</v>
+      </c>
+      <c r="I24">
         <v>20</v>
-      </c>
-      <c r="D24">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>32</v>
-      </c>
-      <c r="F24">
-        <v>23</v>
-      </c>
-      <c r="G24">
-        <v>21</v>
-      </c>
-      <c r="H24">
-        <v>30</v>
-      </c>
-      <c r="I24">
-        <v>21</v>
       </c>
       <c r="J24">
         <f>AVERAGE(C24:I24)</f>
-        <v>24.857142857142858</v>
+        <v>21.571428571428573</v>
       </c>
       <c r="K24">
         <f>IF(J24&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C25">
+        <v>21</v>
+      </c>
+      <c r="D25">
         <v>22</v>
       </c>
-      <c r="D25">
-        <v>29</v>
-      </c>
       <c r="E25">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F25">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G25">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I25">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J25">
         <f>AVERAGE(C25:I25)</f>
-        <v>24.714285714285715</v>
+        <v>22.285714285714285</v>
       </c>
       <c r="K25">
         <f>IF(J25&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E26">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F26">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G26">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I26">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="J26">
         <f>AVERAGE(C26:I26)</f>
-        <v>25</v>
+        <v>22.571428571428573</v>
       </c>
       <c r="K26">
         <f>IF(J26&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27">
+        <v>34</v>
+      </c>
+      <c r="F27">
         <v>9</v>
       </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
       <c r="G27">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I27">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J27">
         <f>AVERAGE(C27:I27)</f>
-        <v>11.571428571428571</v>
+        <v>24.285714285714285</v>
       </c>
       <c r="K27">
         <f>IF(J27&lt;=20, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E28">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F28">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G28">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I28">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J28">
         <f>AVERAGE(C28:I28)</f>
-        <v>27</v>
+        <v>24.714285714285715</v>
       </c>
       <c r="K28">
         <f>IF(J28&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>32</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+      <c r="G29">
         <v>21</v>
       </c>
-      <c r="C29">
-        <v>31</v>
-      </c>
-      <c r="D29">
-        <v>37</v>
-      </c>
-      <c r="E29">
-        <v>22</v>
-      </c>
-      <c r="F29">
-        <v>42</v>
-      </c>
-      <c r="G29">
-        <v>31</v>
-      </c>
       <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
         <v>21</v>
-      </c>
-      <c r="I29">
-        <v>26</v>
       </c>
       <c r="J29">
         <f>AVERAGE(C29:I29)</f>
-        <v>30</v>
+        <v>24.857142857142858</v>
       </c>
       <c r="K29">
         <f>IF(J29&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F30">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G30">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H30">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I30">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J30">
         <f>AVERAGE(C30:I30)</f>
-        <v>30.285714285714285</v>
+        <v>25</v>
       </c>
       <c r="K30">
         <f>IF(J30&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E31">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F31">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G31">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H31">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I31">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J31">
         <f>AVERAGE(C31:I31)</f>
-        <v>32.428571428571431</v>
+        <v>25.571428571428573</v>
       </c>
       <c r="K31">
         <f>IF(J31&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H32">
+        <v>20</v>
+      </c>
+      <c r="I32">
         <v>25</v>
-      </c>
-      <c r="I32">
-        <v>29</v>
       </c>
       <c r="J32">
         <f>AVERAGE(C32:I32)</f>
-        <v>10.428571428571429</v>
+        <v>27</v>
       </c>
       <c r="K32">
         <f>IF(J32&lt;=20, 1, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E33">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F33">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33">
+        <v>19</v>
+      </c>
+      <c r="I33">
         <v>33</v>
-      </c>
-      <c r="H33">
-        <v>35</v>
-      </c>
-      <c r="I33">
-        <v>30</v>
       </c>
       <c r="J33">
         <f>AVERAGE(C33:I33)</f>
-        <v>24.285714285714285</v>
+        <v>29</v>
       </c>
       <c r="K33">
         <f>IF(J33&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F34">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G34">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I34">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J34">
         <f>AVERAGE(C34:I34)</f>
-        <v>32.857142857142854</v>
+        <v>30</v>
       </c>
       <c r="K34">
         <f>IF(J34&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E35">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F35">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I35">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J35">
         <f>AVERAGE(C35:I35)</f>
-        <v>25.571428571428573</v>
+        <v>30.142857142857142</v>
       </c>
       <c r="K35">
         <f>IF(J35&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C36">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E36">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F36">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G36">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H36">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I36">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J36">
         <f>AVERAGE(C36:I36)</f>
-        <v>29</v>
+        <v>30.285714285714285</v>
       </c>
       <c r="K36">
         <f>IF(J36&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>34</v>
+      </c>
+      <c r="G37">
+        <v>34</v>
+      </c>
+      <c r="H37">
+        <v>18</v>
+      </c>
+      <c r="I37">
         <v>37</v>
-      </c>
-      <c r="F37">
-        <v>41</v>
-      </c>
-      <c r="G37">
-        <v>43</v>
-      </c>
-      <c r="H37">
-        <v>36</v>
-      </c>
-      <c r="I37">
-        <v>34</v>
       </c>
       <c r="J37">
         <f>AVERAGE(C37:I37)</f>
-        <v>39.857142857142854</v>
+        <v>31.428571428571427</v>
       </c>
       <c r="K37">
         <f>IF(J37&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E38">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F38">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G38">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H38">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I38">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J38">
         <f>AVERAGE(C38:I38)</f>
-        <v>38.571428571428569</v>
+        <v>32.428571428571431</v>
       </c>
       <c r="K38">
         <f>IF(J38&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>34</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+      <c r="F39">
         <v>35</v>
       </c>
-      <c r="D39">
-        <v>25</v>
-      </c>
-      <c r="E39">
-        <v>35</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
       <c r="G39">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I39">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J39">
         <f>AVERAGE(C39:I39)</f>
-        <v>30.142857142857142</v>
+        <v>32.857142857142854</v>
       </c>
       <c r="K39">
         <f>IF(J39&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C40">
+        <v>34</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>45</v>
+      </c>
+      <c r="H40">
         <v>41</v>
       </c>
-      <c r="D40">
-        <v>36</v>
-      </c>
-      <c r="E40">
-        <v>20</v>
-      </c>
-      <c r="F40">
-        <v>34</v>
-      </c>
-      <c r="G40">
-        <v>34</v>
-      </c>
-      <c r="H40">
-        <v>18</v>
-      </c>
       <c r="I40">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <f>AVERAGE(C40:I40)</f>
-        <v>31.428571428571427</v>
+        <v>33.428571428571431</v>
       </c>
       <c r="K40">
         <f>IF(J40&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D41">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41">
+        <v>39</v>
+      </c>
+      <c r="H41">
+        <v>42</v>
+      </c>
+      <c r="I41">
         <v>44</v>
-      </c>
-      <c r="G41">
-        <v>41</v>
-      </c>
-      <c r="H41">
-        <v>47</v>
-      </c>
-      <c r="I41">
-        <v>38</v>
       </c>
       <c r="J41">
         <f>AVERAGE(C41:I41)</f>
-        <v>42.285714285714285</v>
+        <v>33.857142857142854</v>
       </c>
       <c r="K41">
         <f>IF(J41&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>32</v>
       </c>
@@ -2251,229 +2257,229 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C43">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E43">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F43">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G43">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H43">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I43">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <f>AVERAGE(C43:I43)</f>
-        <v>44.285714285714285</v>
+        <v>38</v>
       </c>
       <c r="K43">
         <f>IF(J43&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C44">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D44">
+        <v>38</v>
+      </c>
+      <c r="E44">
+        <v>38</v>
+      </c>
+      <c r="F44">
+        <v>39</v>
+      </c>
+      <c r="G44">
         <v>42</v>
       </c>
-      <c r="E44">
-        <v>41</v>
-      </c>
-      <c r="F44">
-        <v>43</v>
-      </c>
-      <c r="G44">
-        <v>37</v>
-      </c>
       <c r="H44">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I44">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J44">
         <f>AVERAGE(C44:I44)</f>
-        <v>40</v>
+        <v>38.571428571428569</v>
       </c>
       <c r="K44">
         <f>IF(J44&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C45">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D45">
+        <v>45</v>
+      </c>
+      <c r="E45">
+        <v>37</v>
+      </c>
+      <c r="F45">
         <v>41</v>
       </c>
-      <c r="E45">
-        <v>25</v>
-      </c>
-      <c r="F45">
-        <v>38</v>
-      </c>
       <c r="G45">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I45">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J45">
         <f>AVERAGE(C45:I45)</f>
-        <v>38</v>
+        <v>39.857142857142854</v>
       </c>
       <c r="K45">
         <f>IF(J45&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C46">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D46">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E46">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G46">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H46">
+        <v>32</v>
+      </c>
+      <c r="I46">
         <v>41</v>
-      </c>
-      <c r="I46">
-        <v>43</v>
       </c>
       <c r="J46">
         <f>AVERAGE(C46:I46)</f>
-        <v>33.428571428571431</v>
+        <v>40</v>
       </c>
       <c r="K46">
         <f>IF(J46&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+      <c r="D47">
         <v>43</v>
       </c>
-      <c r="B47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47">
-        <v>37</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
       <c r="E47">
+        <v>43</v>
+      </c>
+      <c r="F47">
         <v>44</v>
       </c>
-      <c r="F47">
-        <v>30</v>
-      </c>
       <c r="G47">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H47">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I47">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J47">
         <f>AVERAGE(C47:I47)</f>
-        <v>33.857142857142854</v>
+        <v>42.285714285714285</v>
       </c>
       <c r="K47">
         <f>IF(J47&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D48">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E48">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F48">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G48">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="H48">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I48">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J48">
         <f>AVERAGE(C48:I48)</f>
-        <v>22.571428571428573</v>
+        <v>44.285714285714285</v>
       </c>
       <c r="K48">
         <f>IF(J48&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>50</v>
       </c>
@@ -2510,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2547,81 +2553,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <v>48</v>
+      </c>
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <v>48</v>
+      </c>
+      <c r="F51">
         <v>47</v>
       </c>
-      <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51">
+      <c r="G51">
+        <v>47</v>
+      </c>
+      <c r="H51">
+        <v>48</v>
+      </c>
+      <c r="I51">
         <v>49</v>
-      </c>
-      <c r="D51">
-        <v>47</v>
-      </c>
-      <c r="E51">
-        <v>49</v>
-      </c>
-      <c r="F51">
-        <v>49</v>
-      </c>
-      <c r="G51">
-        <v>48</v>
-      </c>
-      <c r="H51">
-        <v>49</v>
-      </c>
-      <c r="I51">
-        <v>48</v>
       </c>
       <c r="J51">
         <f>AVERAGE(C51:I51)</f>
-        <v>48.428571428571431</v>
+        <v>48</v>
       </c>
       <c r="K51">
         <f>IF(J51&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C52">
+        <v>49</v>
+      </c>
+      <c r="D52">
+        <v>47</v>
+      </c>
+      <c r="E52">
+        <v>49</v>
+      </c>
+      <c r="F52">
+        <v>49</v>
+      </c>
+      <c r="G52">
         <v>48</v>
       </c>
-      <c r="D52">
+      <c r="H52">
         <v>49</v>
       </c>
-      <c r="E52">
+      <c r="I52">
         <v>48</v>
-      </c>
-      <c r="F52">
-        <v>47</v>
-      </c>
-      <c r="G52">
-        <v>47</v>
-      </c>
-      <c r="H52">
-        <v>48</v>
-      </c>
-      <c r="I52">
-        <v>49</v>
       </c>
       <c r="J52">
         <f>AVERAGE(C52:I52)</f>
-        <v>48</v>
+        <v>48.428571428571431</v>
       </c>
       <c r="K52">
         <f>IF(J52&lt;=20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="20.25" thickBot="1">
+    <row r="56" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C56" s="3"/>
       <c r="D56" s="4" t="s">
         <v>52</v>
@@ -2645,7 +2651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="21" thickTop="1" thickBot="1">
+    <row r="57" spans="1:11" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="6" t="s">
         <v>52</v>
       </c>
@@ -2671,13 +2677,13 @@
         <v>0.72017517366354566</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="21" thickTop="1" thickBot="1">
+    <row r="58" spans="1:11" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D58" s="7">
         <f>CORREL($C$2:$C$52,D2:D52)</f>
-        <v>0.78481360831859159</v>
+        <v>0.7848136083185917</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>62</v>
@@ -2698,7 +2704,7 @@
         <v>0.68634314190792622</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="21" thickTop="1" thickBot="1">
+    <row r="59" spans="1:11" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="6" t="s">
         <v>54</v>
       </c>
@@ -2726,13 +2732,13 @@
         <v>0.69752880010355078</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="21" thickTop="1" thickBot="1">
+    <row r="60" spans="1:11" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C60" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D60" s="7">
         <f>CORREL($C$2:$C$52,F2:F52)</f>
-        <v>0.74676403330888408</v>
+        <v>0.74676403330888386</v>
       </c>
       <c r="E60" s="7">
         <f>CORREL($D$2:$D$52,F2:F52)</f>
@@ -2740,7 +2746,7 @@
       </c>
       <c r="F60" s="7">
         <f>CORREL($E$2:$E$52,F2:F52)</f>
-        <v>0.56036695862277253</v>
+        <v>0.56036695862277242</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>62</v>
@@ -2755,13 +2761,13 @@
         <v>0.72549294559261335</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="21" thickTop="1" thickBot="1">
+    <row r="61" spans="1:11" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C61" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D61" s="7">
         <f>CORREL($C$2:$C$52,G2:G52)</f>
-        <v>0.82341329766578963</v>
+        <v>0.82341329766578941</v>
       </c>
       <c r="E61" s="7">
         <f>CORREL($D$2:$D$52,G2:G52)</f>
@@ -2769,11 +2775,11 @@
       </c>
       <c r="F61" s="7">
         <f>CORREL($E$2:$E$52,G2:G52)</f>
-        <v>0.72952711740087139</v>
+        <v>0.72952711740087162</v>
       </c>
       <c r="G61" s="7">
         <f>CORREL($F$2:$F$52,G2:G52)</f>
-        <v>0.69991262889933981</v>
+        <v>0.69991262889933969</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>62</v>
@@ -2785,13 +2791,13 @@
         <v>0.8166285541700824</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="21" thickTop="1" thickBot="1">
+    <row r="62" spans="1:11" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C62" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D62" s="7">
         <f>CORREL($C$2:$C$52,H2:H52)</f>
-        <v>0.72475945980929402</v>
+        <v>0.7247594598092939</v>
       </c>
       <c r="E62" s="7">
         <f>CORREL($D$2:$D$52,H2:H52)</f>
@@ -2803,11 +2809,11 @@
       </c>
       <c r="G62" s="7">
         <f>CORREL($F$2:$F$52,H2:H52)</f>
-        <v>0.55816650127281353</v>
+        <v>0.55816650127281364</v>
       </c>
       <c r="H62" s="7">
         <f>CORREL($G$2:$G$52,H2:H52)</f>
-        <v>0.69505328558484714</v>
+        <v>0.69505328558484691</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>62</v>
@@ -2816,7 +2822,7 @@
         <v>0.730627346075851</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="20.25" thickTop="1">
+    <row r="63" spans="1:11" ht="20.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C63" s="9" t="s">
         <v>58</v>
       </c>
@@ -2826,11 +2832,11 @@
       </c>
       <c r="E63" s="10">
         <f>CORREL($D$2:$D$52,I2:I52)</f>
-        <v>0.686343141907926</v>
+        <v>0.68634314190792589</v>
       </c>
       <c r="F63" s="10">
         <f>CORREL($E$2:$E$52,I2:I52)</f>
-        <v>0.69752880010355078</v>
+        <v>0.69752880010355067</v>
       </c>
       <c r="G63" s="10">
         <f>CORREL($F$2:$F$52,I2:I52)</f>
@@ -2838,7 +2844,7 @@
       </c>
       <c r="H63" s="10">
         <f>CORREL($G$2:$G$52,I2:I52)</f>
-        <v>0.81662855417008251</v>
+        <v>0.8166285541700824</v>
       </c>
       <c r="I63" s="10">
         <f>CORREL($H$2:$H$52,I2:I52)</f>
@@ -2849,20 +2855,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K52">
+  <autoFilter ref="A1:K52" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:K52">
       <sortCondition ref="I1:I52"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:K52">
-    <sortCondition ref="C2"/>
+    <sortCondition ref="J2:J52"/>
   </sortState>
   <conditionalFormatting sqref="D58:I63">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -2872,9 +2878,9 @@
   <conditionalFormatting sqref="D57:J63">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
